--- a/biology/Zoologie/Centruroides_anchorellus/Centruroides_anchorellus.xlsx
+++ b/biology/Zoologie/Centruroides_anchorellus/Centruroides_anchorellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides anchorellus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans les provinces de Matanzas, de Villa Clara, de Sancti Spíritus, de Ciego de Ávila, de Camagüey, de Granma, de Las Tunas, de Holguín, de Santiago de Cuba et de Guantánamo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans les provinces de Matanzas, de Villa Clara, de Sancti Spíritus, de Ciego de Ávila, de Camagüey, de Granma, de Las Tunas, de Holguín, de Santiago de Cuba et de Guantánamo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 26,5 à 69,4 mm et les femelles de 33,9 à 54,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 26,5 à 69,4 mm et les femelles de 33,9 à 54,6 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centruroides armadai[3], Centruroides baracoae[3] et Centruroides maisiensis[3] ont été placées en synonymie par Armas en 1984[4].
-Centruroides baracoae a été relevée de synonymie par Teruel en 2000[2] qui dans le même temps place Centruroides maisiensis en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centruroides armadai, Centruroides baracoae et Centruroides maisiensis ont été placées en synonymie par Armas en 1984.
+Centruroides baracoae a été relevée de synonymie par Teruel en 2000 qui dans le même temps place Centruroides maisiensis en synonymie.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Armas, 1976 : « Escorpiones del archipielago Cubano. V. Nuevas especies de Centruroides (Scorpionida: Buthidae). » Poeyana, no 146, p. 1-55.</t>
         </is>
